--- a/output.xlsx
+++ b/output.xlsx
@@ -397,13 +397,2834 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>gameId</v>
+      </c>
+      <c r="B1" t="str">
+        <v>gameName</v>
+      </c>
+      <c r="C1" t="str">
+        <v>gameType</v>
+      </c>
+      <c r="D1" t="str">
+        <v>gameClubId</v>
+      </c>
+      <c r="E1" t="str">
+        <v>thirdPartyId</v>
+      </c>
+      <c r="F1" t="str">
+        <v>serverId</v>
+      </c>
+      <c r="G1" t="str">
+        <v>imagePath</v>
+      </c>
+      <c r="H1" t="str">
+        <v>imageName</v>
+      </c>
+      <c r="I1" t="str">
+        <v>active</v>
+      </c>
+      <c r="J1" t="str">
+        <v>localizationCode</v>
+      </c>
+      <c r="K1" t="str">
+        <v>categoryIdList</v>
+      </c>
+      <c r="L1" t="str">
+        <v>sort</v>
+      </c>
+      <c r="M1" t="str">
+        <v>mType</v>
+      </c>
+      <c r="N1" t="str">
+        <v>gType</v>
+      </c>
+      <c r="O1" t="str">
+        <v>code</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>14091</v>
+      </c>
+      <c r="B2" t="str">
+        <v>小豬銀行</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F2">
+        <v>1002300079</v>
+      </c>
+      <c r="G2" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H2">
+        <v>14091</v>
+      </c>
+      <c r="I2" t="str">
+        <v>True</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Game_JDB_14091</v>
+      </c>
+      <c r="K2">
+        <v>37988</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>14094</v>
+      </c>
+      <c r="B3" t="str">
+        <v>牛運寶藏</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F3">
+        <v>1002300079</v>
+      </c>
+      <c r="G3" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H3">
+        <v>14094</v>
+      </c>
+      <c r="I3" t="str">
+        <v>True</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Game_JDB_14094</v>
+      </c>
+      <c r="K3">
+        <v>37988</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>14088</v>
+      </c>
+      <c r="B4" t="str">
+        <v>魔幻王牌</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F4">
+        <v>1002300079</v>
+      </c>
+      <c r="G4" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H4">
+        <v>14088</v>
+      </c>
+      <c r="I4" t="str">
+        <v>True</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Game_JDB_14088</v>
+      </c>
+      <c r="K4">
+        <v>37988</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>14036</v>
+      </c>
+      <c r="B5" t="str">
+        <v>超級牛B</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F5">
+        <v>1002300079</v>
+      </c>
+      <c r="G5" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H5">
+        <v>14036</v>
+      </c>
+      <c r="I5" t="str">
+        <v>True</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Game_JDB_14036</v>
+      </c>
+      <c r="K5">
+        <v>37988</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>14042</v>
+      </c>
+      <c r="B6" t="str">
+        <v>聚寶盆</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F6">
+        <v>1002300079</v>
+      </c>
+      <c r="G6" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H6">
+        <v>14042</v>
+      </c>
+      <c r="I6" t="str">
+        <v>True</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Game_JDB_14042</v>
+      </c>
+      <c r="K6">
+        <v>37988</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>14045</v>
+      </c>
+      <c r="B7" t="str">
+        <v>超級牛B 豪華版</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F7">
+        <v>1002300079</v>
+      </c>
+      <c r="G7" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H7">
+        <v>14045</v>
+      </c>
+      <c r="I7" t="str">
+        <v>True</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Game_JDB_14045</v>
+      </c>
+      <c r="K7">
+        <v>37988</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>14085</v>
+      </c>
+      <c r="B8" t="str">
+        <v>星際水果霸</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F8">
+        <v>1002300079</v>
+      </c>
+      <c r="G8" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H8">
+        <v>14085</v>
+      </c>
+      <c r="I8" t="str">
+        <v>True</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Game_JDB_14085</v>
+      </c>
+      <c r="K8">
+        <v>37988</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8011</v>
+      </c>
+      <c r="B9" t="str">
+        <v>瘋狂金魚</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F9">
+        <v>1002300079</v>
+      </c>
+      <c r="G9" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H9">
+        <v>8011</v>
+      </c>
+      <c r="I9" t="str">
+        <v>True</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Game_JDB_8011</v>
+      </c>
+      <c r="K9">
+        <v>37988</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>8048</v>
+      </c>
+      <c r="B10" t="str">
+        <v>芝麻開門2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F10">
+        <v>1002300079</v>
+      </c>
+      <c r="G10" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H10">
+        <v>8048</v>
+      </c>
+      <c r="I10" t="str">
+        <v>True</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Game_JDB_8048</v>
+      </c>
+      <c r="K10">
+        <v>37988</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>14041</v>
+      </c>
+      <c r="B11" t="str">
+        <v>雷神之鎚</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F11">
+        <v>1002300079</v>
+      </c>
+      <c r="G11" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H11">
+        <v>14041</v>
+      </c>
+      <c r="I11" t="str">
+        <v>True</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Game_JDB_14041</v>
+      </c>
+      <c r="K11">
+        <v>37988</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>14063</v>
+      </c>
+      <c r="B12" t="str">
+        <v>大三元</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F12">
+        <v>1002300079</v>
+      </c>
+      <c r="G12" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H12">
+        <v>14063</v>
+      </c>
+      <c r="I12" t="str">
+        <v>True</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Game_JDB_14063</v>
+      </c>
+      <c r="K12">
+        <v>37988</v>
+      </c>
+      <c r="L12">
+        <v>11</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>14055</v>
+      </c>
+      <c r="B13" t="str">
+        <v>金剛</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F13">
+        <v>1002300079</v>
+      </c>
+      <c r="G13" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H13">
+        <v>14055</v>
+      </c>
+      <c r="I13" t="str">
+        <v>True</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Game_JDB_14055</v>
+      </c>
+      <c r="K13">
+        <v>37988</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>8020</v>
+      </c>
+      <c r="B14" t="str">
+        <v>芝麻開門</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F14">
+        <v>1002300079</v>
+      </c>
+      <c r="G14" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H14">
+        <v>8020</v>
+      </c>
+      <c r="I14" t="str">
+        <v>True</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Game_JDB_8020</v>
+      </c>
+      <c r="K14" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L14">
+        <v>13</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>8013</v>
+      </c>
+      <c r="B15" t="str">
+        <v>泰好玩</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F15">
+        <v>1002300079</v>
+      </c>
+      <c r="G15" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H15">
+        <v>8013</v>
+      </c>
+      <c r="I15" t="str">
+        <v>True</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Game_JDB_8013</v>
+      </c>
+      <c r="K15" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L15">
+        <v>14</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>8003</v>
+      </c>
+      <c r="B16" t="str">
+        <v>變臉</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F16">
+        <v>1002300079</v>
+      </c>
+      <c r="G16" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H16">
+        <v>8003</v>
+      </c>
+      <c r="I16" t="str">
+        <v>True</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Game_JDB_8003</v>
+      </c>
+      <c r="K16" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L16">
+        <v>15</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>8006</v>
+      </c>
+      <c r="B17" t="str">
+        <v>台灣黑熊</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F17">
+        <v>1002300079</v>
+      </c>
+      <c r="G17" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H17">
+        <v>8006</v>
+      </c>
+      <c r="I17" t="str">
+        <v>True</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Game_JDB_8006</v>
+      </c>
+      <c r="K17" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L17">
+        <v>16</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>14035</v>
+      </c>
+      <c r="B18" t="str">
+        <v>龍舞</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F18">
+        <v>1002300079</v>
+      </c>
+      <c r="G18" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H18">
+        <v>14035</v>
+      </c>
+      <c r="I18" t="str">
+        <v>True</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Game_JDB_14035</v>
+      </c>
+      <c r="K18" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L18">
+        <v>17</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>14065</v>
+      </c>
+      <c r="B19" t="str">
+        <v>花開富貴</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F19">
+        <v>1002300079</v>
+      </c>
+      <c r="G19" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H19">
+        <v>14065</v>
+      </c>
+      <c r="I19" t="str">
+        <v>True</v>
+      </c>
+      <c r="J19" t="str">
+        <v>Game_JDB_14065</v>
+      </c>
+      <c r="K19" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L19">
+        <v>18</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>14053</v>
+      </c>
+      <c r="B20" t="str">
+        <v>浪花2</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F20">
+        <v>1002300079</v>
+      </c>
+      <c r="G20" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H20">
+        <v>14053</v>
+      </c>
+      <c r="I20" t="str">
+        <v>True</v>
+      </c>
+      <c r="J20" t="str">
+        <v>Game_JDB_14053</v>
+      </c>
+      <c r="K20" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L20">
+        <v>19</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>8047</v>
+      </c>
+      <c r="B21" t="str">
+        <v>變臉2</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F21">
+        <v>1002300079</v>
+      </c>
+      <c r="G21" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H21">
+        <v>8047</v>
+      </c>
+      <c r="I21" t="str">
+        <v>True</v>
+      </c>
+      <c r="J21" t="str">
+        <v>Game_JDB_8047</v>
+      </c>
+      <c r="K21" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L21">
+        <v>20</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>14010</v>
+      </c>
+      <c r="B22" t="str">
+        <v>飛龍在天</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F22">
+        <v>1002300079</v>
+      </c>
+      <c r="G22" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H22">
+        <v>14010</v>
+      </c>
+      <c r="I22" t="str">
+        <v>True</v>
+      </c>
+      <c r="J22" t="str">
+        <v>Game_JDB_14010</v>
+      </c>
+      <c r="K22" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L22">
+        <v>21</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>14084</v>
+      </c>
+      <c r="B23" t="str">
+        <v>天降財神</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F23">
+        <v>1002300079</v>
+      </c>
+      <c r="G23" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H23">
+        <v>14084</v>
+      </c>
+      <c r="I23" t="str">
+        <v>True</v>
+      </c>
+      <c r="J23" t="str">
+        <v>Game_JDB_14084</v>
+      </c>
+      <c r="K23" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L23">
+        <v>22</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>14033</v>
+      </c>
+      <c r="B24" t="str">
+        <v>飛鳥派對</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F24">
+        <v>1002300079</v>
+      </c>
+      <c r="G24" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H24">
+        <v>14033</v>
+      </c>
+      <c r="I24" t="str">
+        <v>True</v>
+      </c>
+      <c r="J24" t="str">
+        <v>Game_JDB_14033</v>
+      </c>
+      <c r="K24" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L24">
+        <v>23</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>14079</v>
+      </c>
+      <c r="B25" t="str">
+        <v>富豪哥2</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F25">
+        <v>1002300079</v>
+      </c>
+      <c r="G25" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H25">
+        <v>14079</v>
+      </c>
+      <c r="I25" t="str">
+        <v>True</v>
+      </c>
+      <c r="J25" t="str">
+        <v>Game_JDB_14079</v>
+      </c>
+      <c r="K25" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L25">
+        <v>24</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>14086</v>
+      </c>
+      <c r="B26" t="str">
+        <v>芝麻開門 Mega</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F26">
+        <v>1002300079</v>
+      </c>
+      <c r="G26" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H26">
+        <v>14086</v>
+      </c>
+      <c r="I26" t="str">
+        <v>True</v>
+      </c>
+      <c r="J26" t="str">
+        <v>Game_JDB_14086</v>
+      </c>
+      <c r="K26" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L26">
+        <v>25</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>14077</v>
+      </c>
+      <c r="B27" t="str">
+        <v>王牌</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F27">
+        <v>1002300079</v>
+      </c>
+      <c r="G27" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H27">
+        <v>14077</v>
+      </c>
+      <c r="I27" t="str">
+        <v>True</v>
+      </c>
+      <c r="J27" t="str">
+        <v>Game_JDB_14077</v>
+      </c>
+      <c r="K27" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L27">
+        <v>26</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>8050</v>
+      </c>
+      <c r="B28" t="str">
+        <v>馬上有錢</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="E28" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F28">
+        <v>1002300079</v>
+      </c>
+      <c r="G28" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H28">
+        <v>8050</v>
+      </c>
+      <c r="I28" t="str">
+        <v>True</v>
+      </c>
+      <c r="J28" t="str">
+        <v>Game_JDB_8050</v>
+      </c>
+      <c r="K28" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L28">
+        <v>27</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>14016</v>
+      </c>
+      <c r="B29" t="str">
+        <v>王牌特工</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+      <c r="E29" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F29">
+        <v>1002300079</v>
+      </c>
+      <c r="G29" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H29">
+        <v>14016</v>
+      </c>
+      <c r="I29" t="str">
+        <v>True</v>
+      </c>
+      <c r="J29" t="str">
+        <v>Game_JDB_14016</v>
+      </c>
+      <c r="K29" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L29">
+        <v>28</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>8015</v>
+      </c>
+      <c r="B30" t="str">
+        <v>月光秘寶</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F30">
+        <v>1002300079</v>
+      </c>
+      <c r="G30" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H30">
+        <v>8015</v>
+      </c>
+      <c r="I30" t="str">
+        <v>True</v>
+      </c>
+      <c r="J30" t="str">
+        <v>Game_JDB_8015</v>
+      </c>
+      <c r="K30" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L30">
+        <v>29</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>8051</v>
+      </c>
+      <c r="B31" t="str">
+        <v>喜洋羊</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+      <c r="E31" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F31">
+        <v>1002300079</v>
+      </c>
+      <c r="G31" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H31">
+        <v>8051</v>
+      </c>
+      <c r="I31" t="str">
+        <v>True</v>
+      </c>
+      <c r="J31" t="str">
+        <v>Game_JDB_8051</v>
+      </c>
+      <c r="K31" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L31">
+        <v>30</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>8012</v>
+      </c>
+      <c r="B32" t="str">
+        <v>幸運熊貓</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F32">
+        <v>1002300079</v>
+      </c>
+      <c r="G32" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H32">
+        <v>8012</v>
+      </c>
+      <c r="I32" t="str">
+        <v>True</v>
+      </c>
+      <c r="J32" t="str">
+        <v>Game_JDB_8012</v>
+      </c>
+      <c r="K32" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L32">
+        <v>31</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>8009</v>
+      </c>
+      <c r="B33" t="str">
+        <v>拳王</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
+      <c r="E33" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F33">
+        <v>1002300079</v>
+      </c>
+      <c r="G33" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H33">
+        <v>8009</v>
+      </c>
+      <c r="I33" t="str">
+        <v>True</v>
+      </c>
+      <c r="J33" t="str">
+        <v>Game_JDB_8009</v>
+      </c>
+      <c r="K33" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L33">
+        <v>32</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>14051</v>
+      </c>
+      <c r="B34" t="str">
+        <v>鯉躍龍門</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F34">
+        <v>1002300079</v>
+      </c>
+      <c r="G34" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H34">
+        <v>14051</v>
+      </c>
+      <c r="I34" t="str">
+        <v>True</v>
+      </c>
+      <c r="J34" t="str">
+        <v>Game_JDB_14051</v>
+      </c>
+      <c r="K34" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L34">
+        <v>33</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>15003</v>
+      </c>
+      <c r="B35" t="str">
+        <v>骰寶無雙</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F35">
+        <v>1002300079</v>
+      </c>
+      <c r="G35" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H35">
+        <v>15003</v>
+      </c>
+      <c r="I35" t="str">
+        <v>True</v>
+      </c>
+      <c r="J35" t="str">
+        <v>Game_JDB_15003</v>
+      </c>
+      <c r="K35" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L35">
+        <v>34</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>14075</v>
+      </c>
+      <c r="B36" t="str">
+        <v>幸運招財貓</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>9</v>
+      </c>
+      <c r="E36" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F36">
+        <v>1002300079</v>
+      </c>
+      <c r="G36" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H36">
+        <v>14075</v>
+      </c>
+      <c r="I36" t="str">
+        <v>True</v>
+      </c>
+      <c r="J36" t="str">
+        <v>Game_JDB_14075</v>
+      </c>
+      <c r="K36" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L36">
+        <v>35</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>14080</v>
+      </c>
+      <c r="B37" t="str">
+        <v>元素連結火</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F37">
+        <v>1002300079</v>
+      </c>
+      <c r="G37" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H37">
+        <v>14080</v>
+      </c>
+      <c r="I37" t="str">
+        <v>True</v>
+      </c>
+      <c r="J37" t="str">
+        <v>Game_JDB_14080</v>
+      </c>
+      <c r="K37" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L37">
+        <v>36</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>8017</v>
+      </c>
+      <c r="B38" t="str">
+        <v>過新年</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>9</v>
+      </c>
+      <c r="E38" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F38">
+        <v>1002300079</v>
+      </c>
+      <c r="G38" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H38">
+        <v>8017</v>
+      </c>
+      <c r="I38" t="str">
+        <v>True</v>
+      </c>
+      <c r="J38" t="str">
+        <v>Game_JDB_8017</v>
+      </c>
+      <c r="K38" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L38">
+        <v>37</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>8049</v>
+      </c>
+      <c r="B39" t="str">
+        <v>唐伯虎點秋香2</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+      <c r="E39" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F39">
+        <v>1002300079</v>
+      </c>
+      <c r="G39" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H39">
+        <v>8049</v>
+      </c>
+      <c r="I39" t="str">
+        <v>True</v>
+      </c>
+      <c r="J39" t="str">
+        <v>Game_JDB_8049</v>
+      </c>
+      <c r="K39" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L39">
+        <v>38</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>8001</v>
+      </c>
+      <c r="B40" t="str">
+        <v>幸運龍</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="E40" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F40">
+        <v>1002300079</v>
+      </c>
+      <c r="G40" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H40">
+        <v>8001</v>
+      </c>
+      <c r="I40" t="str">
+        <v>True</v>
+      </c>
+      <c r="J40" t="str">
+        <v>Game_JDB_8001</v>
+      </c>
+      <c r="K40" t="str">
+        <v>1, 2</v>
+      </c>
+      <c r="L40">
+        <v>39</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>8033</v>
+      </c>
+      <c r="B41" t="str">
+        <v>金錢豹</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>9</v>
+      </c>
+      <c r="E41" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F41">
+        <v>1002300079</v>
+      </c>
+      <c r="G41" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H41">
+        <v>8033</v>
+      </c>
+      <c r="I41" t="str">
+        <v>True</v>
+      </c>
+      <c r="J41" t="str">
+        <v>Game_JDB_8033</v>
+      </c>
+      <c r="K41" t="str">
+        <v>1, 6</v>
+      </c>
+      <c r="L41">
+        <v>40</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>8032</v>
+      </c>
+      <c r="B42" t="str">
+        <v>暴發虎</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>9</v>
+      </c>
+      <c r="E42" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F42">
+        <v>1002300079</v>
+      </c>
+      <c r="G42" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H42">
+        <v>8032</v>
+      </c>
+      <c r="I42" t="str">
+        <v>True</v>
+      </c>
+      <c r="J42" t="str">
+        <v>Game_JDB_8032</v>
+      </c>
+      <c r="K42" t="str">
+        <v>1, 6</v>
+      </c>
+      <c r="L42">
+        <v>41</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>9001</v>
+      </c>
+      <c r="B43" t="str">
+        <v>小瑪莉</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>9</v>
+      </c>
+      <c r="E43" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F43">
+        <v>1002300079</v>
+      </c>
+      <c r="G43" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H43">
+        <v>9001</v>
+      </c>
+      <c r="I43" t="str">
+        <v>True</v>
+      </c>
+      <c r="J43" t="str">
+        <v>Game_JDB_9001</v>
+      </c>
+      <c r="K43" t="str">
+        <v>1, 6</v>
+      </c>
+      <c r="L43">
+        <v>42</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>9002</v>
+      </c>
+      <c r="B44" t="str">
+        <v>新年快樂</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>9</v>
+      </c>
+      <c r="E44" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F44">
+        <v>1002300079</v>
+      </c>
+      <c r="G44" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H44">
+        <v>9002</v>
+      </c>
+      <c r="I44" t="str">
+        <v>True</v>
+      </c>
+      <c r="J44" t="str">
+        <v>Game_JDB_9002</v>
+      </c>
+      <c r="K44" t="str">
+        <v>1, 6</v>
+      </c>
+      <c r="L44">
+        <v>43</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>9003</v>
+      </c>
+      <c r="B45" t="str">
+        <v>飛禽走獸</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>9</v>
+      </c>
+      <c r="E45" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F45">
+        <v>1002300079</v>
+      </c>
+      <c r="G45" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H45">
+        <v>9003</v>
+      </c>
+      <c r="I45" t="str">
+        <v>True</v>
+      </c>
+      <c r="J45" t="str">
+        <v>Game_JDB_9003</v>
+      </c>
+      <c r="K45" t="str">
+        <v>1, 6</v>
+      </c>
+      <c r="L45">
+        <v>44</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>9004</v>
+      </c>
+      <c r="B46" t="str">
+        <v>啤酒大亨</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>9</v>
+      </c>
+      <c r="E46" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F46">
+        <v>1002300079</v>
+      </c>
+      <c r="G46" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H46">
+        <v>9004</v>
+      </c>
+      <c r="I46" t="str">
+        <v>True</v>
+      </c>
+      <c r="J46" t="str">
+        <v>Game_JDB_9004</v>
+      </c>
+      <c r="K46" t="str">
+        <v>1, 6</v>
+      </c>
+      <c r="L46">
+        <v>45</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>9006</v>
+      </c>
+      <c r="B47" t="str">
+        <v>花果山傳奇</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+      <c r="E47" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F47">
+        <v>1002300079</v>
+      </c>
+      <c r="G47" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H47">
+        <v>9006</v>
+      </c>
+      <c r="I47" t="str">
+        <v>True</v>
+      </c>
+      <c r="J47" t="str">
+        <v>Game_JDB_9006</v>
+      </c>
+      <c r="K47" t="str">
+        <v>1, 6</v>
+      </c>
+      <c r="L47">
+        <v>46</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>9007</v>
+      </c>
+      <c r="B48" t="str">
+        <v>超激發水果盤</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="E48" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F48">
+        <v>1002300079</v>
+      </c>
+      <c r="G48" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H48">
+        <v>9007</v>
+      </c>
+      <c r="I48" t="str">
+        <v>True</v>
+      </c>
+      <c r="J48" t="str">
+        <v>Game_JDB_9007</v>
+      </c>
+      <c r="K48" t="str">
+        <v>1, 6</v>
+      </c>
+      <c r="L48">
+        <v>47</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>9008</v>
+      </c>
+      <c r="B49" t="str">
+        <v>瘋狂金剛</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+      <c r="E49" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F49">
+        <v>1002300079</v>
+      </c>
+      <c r="G49" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H49">
+        <v>9008</v>
+      </c>
+      <c r="I49" t="str">
+        <v>True</v>
+      </c>
+      <c r="J49" t="str">
+        <v>Game_JDB_9008</v>
+      </c>
+      <c r="K49" t="str">
+        <v>1, 6</v>
+      </c>
+      <c r="L49">
+        <v>48</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>9009</v>
+      </c>
+      <c r="B50" t="str">
+        <v>發財足球王</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>9</v>
+      </c>
+      <c r="E50" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F50">
+        <v>1002300079</v>
+      </c>
+      <c r="G50" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H50">
+        <v>9009</v>
+      </c>
+      <c r="I50" t="str">
+        <v>True</v>
+      </c>
+      <c r="J50" t="str">
+        <v>Game_JDB_9009</v>
+      </c>
+      <c r="K50" t="str">
+        <v>1, 6</v>
+      </c>
+      <c r="L50">
+        <v>49</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>12001</v>
+      </c>
+      <c r="B51" t="str">
+        <v>財神賓果彩</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+      <c r="E51" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F51">
+        <v>1002300079</v>
+      </c>
+      <c r="G51" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H51">
+        <v>12001</v>
+      </c>
+      <c r="I51" t="str">
+        <v>True</v>
+      </c>
+      <c r="J51" t="str">
+        <v>Game_JDB_12001</v>
+      </c>
+      <c r="K51" t="str">
+        <v>1, 6</v>
+      </c>
+      <c r="L51">
+        <v>50</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>12002</v>
+      </c>
+      <c r="B52" t="str">
+        <v>金雞福彩</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+      <c r="E52" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F52">
+        <v>1002300079</v>
+      </c>
+      <c r="G52" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H52">
+        <v>12002</v>
+      </c>
+      <c r="I52" t="str">
+        <v>True</v>
+      </c>
+      <c r="J52" t="str">
+        <v>Game_JDB_12002</v>
+      </c>
+      <c r="K52" t="str">
+        <v>1, 6</v>
+      </c>
+      <c r="L52">
+        <v>51</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>12003</v>
+      </c>
+      <c r="B53" t="str">
+        <v>快樂六星彩</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>9</v>
+      </c>
+      <c r="E53" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F53">
+        <v>1002300079</v>
+      </c>
+      <c r="G53" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H53">
+        <v>12003</v>
+      </c>
+      <c r="I53" t="str">
+        <v>True</v>
+      </c>
+      <c r="J53" t="str">
+        <v>Game_JDB_12003</v>
+      </c>
+      <c r="K53" t="str">
+        <v>1, 6</v>
+      </c>
+      <c r="L53">
+        <v>52</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>7003</v>
+      </c>
+      <c r="B54" t="str">
+        <v>財神捕魚</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+      <c r="E54" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F54">
+        <v>1002300079</v>
+      </c>
+      <c r="G54" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H54">
+        <v>7003</v>
+      </c>
+      <c r="I54" t="str">
+        <v>True</v>
+      </c>
+      <c r="J54" t="str">
+        <v>Game_JDB_7003</v>
+      </c>
+      <c r="K54">
+        <v>37989</v>
+      </c>
+      <c r="L54">
+        <v>53</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>7004</v>
+      </c>
+      <c r="B55" t="str">
+        <v>五龍捕魚</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+      <c r="E55" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F55">
+        <v>1002300079</v>
+      </c>
+      <c r="G55" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H55">
+        <v>7004</v>
+      </c>
+      <c r="I55" t="str">
+        <v>True</v>
+      </c>
+      <c r="J55" t="str">
+        <v>Game_JDB_7004</v>
+      </c>
+      <c r="K55">
+        <v>37989</v>
+      </c>
+      <c r="L55">
+        <v>54</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>7005</v>
+      </c>
+      <c r="B56" t="str">
+        <v>捕魚一路發</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>9</v>
+      </c>
+      <c r="E56" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F56">
+        <v>1002300079</v>
+      </c>
+      <c r="G56" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H56">
+        <v>7005</v>
+      </c>
+      <c r="I56" t="str">
+        <v>True</v>
+      </c>
+      <c r="J56" t="str">
+        <v>Game_JDB_7005</v>
+      </c>
+      <c r="K56">
+        <v>37989</v>
+      </c>
+      <c r="L56">
+        <v>55</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>7001</v>
+      </c>
+      <c r="B57" t="str">
+        <v>龍王捕魚</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F57">
+        <v>1002300079</v>
+      </c>
+      <c r="G57" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H57">
+        <v>7001</v>
+      </c>
+      <c r="I57" t="str">
+        <v>True</v>
+      </c>
+      <c r="J57" t="str">
+        <v>Game_JDB_7001</v>
+      </c>
+      <c r="K57">
+        <v>37989</v>
+      </c>
+      <c r="L57">
+        <v>56</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>7006</v>
+      </c>
+      <c r="B58" t="str">
+        <v>獵龍高手</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+      <c r="E58" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F58">
+        <v>1002300079</v>
+      </c>
+      <c r="G58" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H58">
+        <v>7006</v>
+      </c>
+      <c r="I58" t="str">
+        <v>True</v>
+      </c>
+      <c r="J58" t="str">
+        <v>Game_JDB_7006</v>
+      </c>
+      <c r="K58" t="str">
+        <v>1, 3</v>
+      </c>
+      <c r="L58">
+        <v>57</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>7002</v>
+      </c>
+      <c r="B59" t="str">
+        <v>龍王捕魚2</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+      <c r="E59" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F59">
+        <v>1002300079</v>
+      </c>
+      <c r="G59" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H59">
+        <v>7002</v>
+      </c>
+      <c r="I59" t="str">
+        <v>True</v>
+      </c>
+      <c r="J59" t="str">
+        <v>Game_JDB_7002</v>
+      </c>
+      <c r="K59" t="str">
+        <v>1, 3</v>
+      </c>
+      <c r="L59">
+        <v>58</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>7007</v>
+      </c>
+      <c r="B60" t="str">
+        <v>捕魚迪斯可</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>9</v>
+      </c>
+      <c r="E60" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="F60">
+        <v>1002300079</v>
+      </c>
+      <c r="G60" t="str">
+        <v>JDB</v>
+      </c>
+      <c r="H60">
+        <v>7007</v>
+      </c>
+      <c r="I60" t="str">
+        <v>True</v>
+      </c>
+      <c r="J60" t="str">
+        <v>Game_JDB_7007</v>
+      </c>
+      <c r="K60" t="str">
+        <v>1, 3</v>
+      </c>
+      <c r="L60">
+        <v>59</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O60"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -450,28 +450,28 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="str">
         <v>14091</v>
       </c>
       <c r="B2" t="str">
         <v>小豬銀行</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="str">
+        <v>3</v>
+      </c>
+      <c r="D2" t="str">
         <v>9</v>
       </c>
       <c r="E2" t="str">
         <v>JDB</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="str">
         <v>1002300079</v>
       </c>
       <c r="G2" t="str">
         <v>JDB</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="str">
         <v>14091</v>
       </c>
       <c r="I2" t="str">
@@ -480,45 +480,45 @@
       <c r="J2" t="str">
         <v>Game_JDB_14091</v>
       </c>
-      <c r="K2">
-        <v>37988</v>
-      </c>
-      <c r="L2">
+      <c r="K2" t="str">
+        <v xml:space="preserve">1, 2, 4 </v>
+      </c>
+      <c r="L2" t="str">
         <v>1</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
+      <c r="M2" t="str">
+        <v>0</v>
+      </c>
+      <c r="N2" t="str">
+        <v>0</v>
+      </c>
+      <c r="O2" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" t="str">
         <v>14094</v>
       </c>
       <c r="B3" t="str">
         <v>牛運寶藏</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
+      <c r="C3" t="str">
+        <v>3</v>
+      </c>
+      <c r="D3" t="str">
         <v>9</v>
       </c>
       <c r="E3" t="str">
         <v>JDB</v>
       </c>
-      <c r="F3">
-        <v>1002300079</v>
+      <c r="F3" t="str">
+        <v>1002300069</v>
       </c>
       <c r="G3" t="str">
         <v>JDB</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="str">
         <v>14094</v>
       </c>
       <c r="I3" t="str">
@@ -527,45 +527,45 @@
       <c r="J3" t="str">
         <v>Game_JDB_14094</v>
       </c>
-      <c r="K3">
-        <v>37988</v>
-      </c>
-      <c r="L3">
+      <c r="K3" t="str">
+        <v>1, 2, 4</v>
+      </c>
+      <c r="L3" t="str">
         <v>2</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
+      <c r="M3" t="str">
+        <v>0</v>
+      </c>
+      <c r="N3" t="str">
+        <v>0</v>
+      </c>
+      <c r="O3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" t="str">
         <v>14088</v>
       </c>
       <c r="B4" t="str">
         <v>魔幻王牌</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
+      <c r="C4" t="str">
+        <v>3</v>
+      </c>
+      <c r="D4" t="str">
         <v>9</v>
       </c>
       <c r="E4" t="str">
         <v>JDB</v>
       </c>
-      <c r="F4">
-        <v>1002300079</v>
+      <c r="F4" t="str">
+        <v>1002300066</v>
       </c>
       <c r="G4" t="str">
         <v>JDB</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="str">
         <v>14088</v>
       </c>
       <c r="I4" t="str">
@@ -574,45 +574,45 @@
       <c r="J4" t="str">
         <v>Game_JDB_14088</v>
       </c>
-      <c r="K4">
-        <v>37988</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
+      <c r="K4" t="str">
+        <v>1, 2, 4</v>
+      </c>
+      <c r="L4" t="str">
+        <v>3</v>
+      </c>
+      <c r="M4" t="str">
+        <v>0</v>
+      </c>
+      <c r="N4" t="str">
+        <v>0</v>
+      </c>
+      <c r="O4" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" t="str">
         <v>14036</v>
       </c>
       <c r="B5" t="str">
         <v>超級牛B</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
+      <c r="C5" t="str">
+        <v>3</v>
+      </c>
+      <c r="D5" t="str">
         <v>9</v>
       </c>
       <c r="E5" t="str">
         <v>JDB</v>
       </c>
-      <c r="F5">
-        <v>1002300079</v>
+      <c r="F5" t="str">
+        <v>1002300080</v>
       </c>
       <c r="G5" t="str">
         <v>JDB</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="str">
         <v>14036</v>
       </c>
       <c r="I5" t="str">
@@ -621,45 +621,45 @@
       <c r="J5" t="str">
         <v>Game_JDB_14036</v>
       </c>
-      <c r="K5">
-        <v>37988</v>
-      </c>
-      <c r="L5">
+      <c r="K5" t="str">
+        <v>1, 2, 4</v>
+      </c>
+      <c r="L5" t="str">
         <v>4</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
+      <c r="M5" t="str">
+        <v>0</v>
+      </c>
+      <c r="N5" t="str">
+        <v>0</v>
+      </c>
+      <c r="O5" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" t="str">
         <v>14042</v>
       </c>
       <c r="B6" t="str">
         <v>聚寶盆</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
+      <c r="C6" t="str">
+        <v>3</v>
+      </c>
+      <c r="D6" t="str">
         <v>9</v>
       </c>
       <c r="E6" t="str">
         <v>JDB</v>
       </c>
-      <c r="F6">
-        <v>1002300079</v>
+      <c r="F6" t="str">
+        <v>1002300126</v>
       </c>
       <c r="G6" t="str">
         <v>JDB</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="str">
         <v>14042</v>
       </c>
       <c r="I6" t="str">
@@ -668,45 +668,45 @@
       <c r="J6" t="str">
         <v>Game_JDB_14042</v>
       </c>
-      <c r="K6">
-        <v>37988</v>
-      </c>
-      <c r="L6">
+      <c r="K6" t="str">
+        <v>1, 2, 4</v>
+      </c>
+      <c r="L6" t="str">
         <v>5</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
+      <c r="M6" t="str">
+        <v>0</v>
+      </c>
+      <c r="N6" t="str">
+        <v>0</v>
+      </c>
+      <c r="O6" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" t="str">
         <v>14045</v>
       </c>
       <c r="B7" t="str">
         <v>超級牛B 豪華版</v>
       </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
+      <c r="C7" t="str">
+        <v>3</v>
+      </c>
+      <c r="D7" t="str">
         <v>9</v>
       </c>
       <c r="E7" t="str">
         <v>JDB</v>
       </c>
-      <c r="F7">
-        <v>1002300079</v>
+      <c r="F7" t="str">
+        <v>1002300099</v>
       </c>
       <c r="G7" t="str">
         <v>JDB</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="str">
         <v>14045</v>
       </c>
       <c r="I7" t="str">
@@ -715,45 +715,45 @@
       <c r="J7" t="str">
         <v>Game_JDB_14045</v>
       </c>
-      <c r="K7">
-        <v>37988</v>
-      </c>
-      <c r="L7">
+      <c r="K7" t="str">
+        <v>1, 2, 4</v>
+      </c>
+      <c r="L7" t="str">
         <v>6</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
+      <c r="M7" t="str">
+        <v>0</v>
+      </c>
+      <c r="N7" t="str">
+        <v>0</v>
+      </c>
+      <c r="O7" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" t="str">
         <v>14085</v>
       </c>
       <c r="B8" t="str">
         <v>星際水果霸</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
+      <c r="C8" t="str">
+        <v>3</v>
+      </c>
+      <c r="D8" t="str">
         <v>9</v>
       </c>
       <c r="E8" t="str">
         <v>JDB</v>
       </c>
-      <c r="F8">
-        <v>1002300079</v>
+      <c r="F8" t="str">
+        <v>1002300124</v>
       </c>
       <c r="G8" t="str">
         <v>JDB</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="str">
         <v>14085</v>
       </c>
       <c r="I8" t="str">
@@ -762,45 +762,45 @@
       <c r="J8" t="str">
         <v>Game_JDB_14085</v>
       </c>
-      <c r="K8">
-        <v>37988</v>
-      </c>
-      <c r="L8">
+      <c r="K8" t="str">
+        <v>1, 2, 4</v>
+      </c>
+      <c r="L8" t="str">
         <v>7</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
+      <c r="M8" t="str">
+        <v>0</v>
+      </c>
+      <c r="N8" t="str">
+        <v>0</v>
+      </c>
+      <c r="O8" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
+      <c r="A9" t="str">
         <v>8011</v>
       </c>
       <c r="B9" t="str">
         <v>瘋狂金魚</v>
       </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
+      <c r="C9" t="str">
+        <v>3</v>
+      </c>
+      <c r="D9" t="str">
         <v>9</v>
       </c>
       <c r="E9" t="str">
         <v>JDB</v>
       </c>
-      <c r="F9">
-        <v>1002300079</v>
+      <c r="F9" t="str">
+        <v>1002300077</v>
       </c>
       <c r="G9" t="str">
         <v>JDB</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="str">
         <v>8011</v>
       </c>
       <c r="I9" t="str">
@@ -809,45 +809,45 @@
       <c r="J9" t="str">
         <v>Game_JDB_8011</v>
       </c>
-      <c r="K9">
-        <v>37988</v>
-      </c>
-      <c r="L9">
+      <c r="K9" t="str">
+        <v>1, 2, 4</v>
+      </c>
+      <c r="L9" t="str">
         <v>8</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
+      <c r="M9" t="str">
+        <v>0</v>
+      </c>
+      <c r="N9" t="str">
+        <v>0</v>
+      </c>
+      <c r="O9" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
+      <c r="A10" t="str">
         <v>8048</v>
       </c>
       <c r="B10" t="str">
         <v>芝麻開門2</v>
       </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
+      <c r="C10" t="str">
+        <v>3</v>
+      </c>
+      <c r="D10" t="str">
         <v>9</v>
       </c>
       <c r="E10" t="str">
         <v>JDB</v>
       </c>
-      <c r="F10">
-        <v>1002300079</v>
+      <c r="F10" t="str">
+        <v>1002300069</v>
       </c>
       <c r="G10" t="str">
         <v>JDB</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="str">
         <v>8048</v>
       </c>
       <c r="I10" t="str">
@@ -856,45 +856,45 @@
       <c r="J10" t="str">
         <v>Game_JDB_8048</v>
       </c>
-      <c r="K10">
-        <v>37988</v>
-      </c>
-      <c r="L10">
-        <v>9</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
+      <c r="K10" t="str">
+        <v>1, 2, 4</v>
+      </c>
+      <c r="L10" t="str">
+        <v>9</v>
+      </c>
+      <c r="M10" t="str">
+        <v>0</v>
+      </c>
+      <c r="N10" t="str">
+        <v>0</v>
+      </c>
+      <c r="O10" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
+      <c r="A11" t="str">
         <v>14041</v>
       </c>
       <c r="B11" t="str">
         <v>雷神之鎚</v>
       </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
+      <c r="C11" t="str">
+        <v>3</v>
+      </c>
+      <c r="D11" t="str">
         <v>9</v>
       </c>
       <c r="E11" t="str">
         <v>JDB</v>
       </c>
-      <c r="F11">
-        <v>1002300079</v>
+      <c r="F11" t="str">
+        <v>1002300108</v>
       </c>
       <c r="G11" t="str">
         <v>JDB</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="str">
         <v>14041</v>
       </c>
       <c r="I11" t="str">
@@ -903,45 +903,45 @@
       <c r="J11" t="str">
         <v>Game_JDB_14041</v>
       </c>
-      <c r="K11">
-        <v>37988</v>
-      </c>
-      <c r="L11">
+      <c r="K11" t="str">
+        <v>1, 2, 4</v>
+      </c>
+      <c r="L11" t="str">
         <v>10</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
+      <c r="M11" t="str">
+        <v>0</v>
+      </c>
+      <c r="N11" t="str">
+        <v>0</v>
+      </c>
+      <c r="O11" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
+      <c r="A12" t="str">
         <v>14063</v>
       </c>
       <c r="B12" t="str">
         <v>大三元</v>
       </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
+      <c r="C12" t="str">
+        <v>3</v>
+      </c>
+      <c r="D12" t="str">
         <v>9</v>
       </c>
       <c r="E12" t="str">
         <v>JDB</v>
       </c>
-      <c r="F12">
-        <v>1002300079</v>
+      <c r="F12" t="str">
+        <v>1002300092</v>
       </c>
       <c r="G12" t="str">
         <v>JDB</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="str">
         <v>14063</v>
       </c>
       <c r="I12" t="str">
@@ -950,45 +950,45 @@
       <c r="J12" t="str">
         <v>Game_JDB_14063</v>
       </c>
-      <c r="K12">
-        <v>37988</v>
-      </c>
-      <c r="L12">
+      <c r="K12" t="str">
+        <v>1, 2, 4</v>
+      </c>
+      <c r="L12" t="str">
         <v>11</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
+      <c r="M12" t="str">
+        <v>0</v>
+      </c>
+      <c r="N12" t="str">
+        <v>0</v>
+      </c>
+      <c r="O12" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
+      <c r="A13" t="str">
         <v>14055</v>
       </c>
       <c r="B13" t="str">
         <v>金剛</v>
       </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
+      <c r="C13" t="str">
+        <v>3</v>
+      </c>
+      <c r="D13" t="str">
         <v>9</v>
       </c>
       <c r="E13" t="str">
         <v>JDB</v>
       </c>
-      <c r="F13">
-        <v>1002300079</v>
+      <c r="F13" t="str">
+        <v>1002300078</v>
       </c>
       <c r="G13" t="str">
         <v>JDB</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="str">
         <v>14055</v>
       </c>
       <c r="I13" t="str">
@@ -997,45 +997,45 @@
       <c r="J13" t="str">
         <v>Game_JDB_14055</v>
       </c>
-      <c r="K13">
-        <v>37988</v>
-      </c>
-      <c r="L13">
+      <c r="K13" t="str">
+        <v>1, 2, 4</v>
+      </c>
+      <c r="L13" t="str">
         <v>12</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
+      <c r="M13" t="str">
+        <v>0</v>
+      </c>
+      <c r="N13" t="str">
+        <v>0</v>
+      </c>
+      <c r="O13" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
+      <c r="A14" t="str">
         <v>8020</v>
       </c>
       <c r="B14" t="str">
         <v>芝麻開門</v>
       </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
+      <c r="C14" t="str">
+        <v>3</v>
+      </c>
+      <c r="D14" t="str">
         <v>9</v>
       </c>
       <c r="E14" t="str">
         <v>JDB</v>
       </c>
-      <c r="F14">
-        <v>1002300079</v>
+      <c r="F14" t="str">
+        <v>1002300033</v>
       </c>
       <c r="G14" t="str">
         <v>JDB</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="str">
         <v>8020</v>
       </c>
       <c r="I14" t="str">
@@ -1047,42 +1047,42 @@
       <c r="K14" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="str">
         <v>13</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
+      <c r="M14" t="str">
+        <v>0</v>
+      </c>
+      <c r="N14" t="str">
+        <v>0</v>
+      </c>
+      <c r="O14" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
+      <c r="A15" t="str">
         <v>8013</v>
       </c>
       <c r="B15" t="str">
         <v>泰好玩</v>
       </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
+      <c r="C15" t="str">
+        <v>3</v>
+      </c>
+      <c r="D15" t="str">
         <v>9</v>
       </c>
       <c r="E15" t="str">
         <v>JDB</v>
       </c>
-      <c r="F15">
-        <v>1002300079</v>
+      <c r="F15" t="str">
+        <v>1002300077</v>
       </c>
       <c r="G15" t="str">
         <v>JDB</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="str">
         <v>8013</v>
       </c>
       <c r="I15" t="str">
@@ -1094,42 +1094,42 @@
       <c r="K15" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="str">
         <v>14</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
+      <c r="M15" t="str">
+        <v>0</v>
+      </c>
+      <c r="N15" t="str">
+        <v>0</v>
+      </c>
+      <c r="O15" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
+      <c r="A16" t="str">
         <v>8003</v>
       </c>
       <c r="B16" t="str">
         <v>變臉</v>
       </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
+      <c r="C16" t="str">
+        <v>3</v>
+      </c>
+      <c r="D16" t="str">
         <v>9</v>
       </c>
       <c r="E16" t="str">
         <v>JDB</v>
       </c>
-      <c r="F16">
-        <v>1002300079</v>
+      <c r="F16" t="str">
+        <v>1002300127</v>
       </c>
       <c r="G16" t="str">
         <v>JDB</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="str">
         <v>8003</v>
       </c>
       <c r="I16" t="str">
@@ -1141,42 +1141,42 @@
       <c r="K16" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="str">
         <v>15</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
+      <c r="M16" t="str">
+        <v>0</v>
+      </c>
+      <c r="N16" t="str">
+        <v>0</v>
+      </c>
+      <c r="O16" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
+      <c r="A17" t="str">
         <v>8006</v>
       </c>
       <c r="B17" t="str">
         <v>台灣黑熊</v>
       </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
+      <c r="C17" t="str">
+        <v>3</v>
+      </c>
+      <c r="D17" t="str">
         <v>9</v>
       </c>
       <c r="E17" t="str">
         <v>JDB</v>
       </c>
-      <c r="F17">
-        <v>1002300079</v>
+      <c r="F17" t="str">
+        <v>1002300117</v>
       </c>
       <c r="G17" t="str">
         <v>JDB</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="str">
         <v>8006</v>
       </c>
       <c r="I17" t="str">
@@ -1188,42 +1188,42 @@
       <c r="K17" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="str">
         <v>16</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
+      <c r="M17" t="str">
+        <v>0</v>
+      </c>
+      <c r="N17" t="str">
+        <v>0</v>
+      </c>
+      <c r="O17" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="18">
-      <c r="A18">
+      <c r="A18" t="str">
         <v>14035</v>
       </c>
       <c r="B18" t="str">
         <v>龍舞</v>
       </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
+      <c r="C18" t="str">
+        <v>3</v>
+      </c>
+      <c r="D18" t="str">
         <v>9</v>
       </c>
       <c r="E18" t="str">
         <v>JDB</v>
       </c>
-      <c r="F18">
-        <v>1002300079</v>
+      <c r="F18" t="str">
+        <v>1002300106</v>
       </c>
       <c r="G18" t="str">
         <v>JDB</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="str">
         <v>14035</v>
       </c>
       <c r="I18" t="str">
@@ -1235,42 +1235,42 @@
       <c r="K18" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="str">
         <v>17</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
+      <c r="M18" t="str">
+        <v>0</v>
+      </c>
+      <c r="N18" t="str">
+        <v>0</v>
+      </c>
+      <c r="O18" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
+      <c r="A19" t="str">
         <v>14065</v>
       </c>
       <c r="B19" t="str">
         <v>花開富貴</v>
       </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
+      <c r="C19" t="str">
+        <v>3</v>
+      </c>
+      <c r="D19" t="str">
         <v>9</v>
       </c>
       <c r="E19" t="str">
         <v>JDB</v>
       </c>
-      <c r="F19">
-        <v>1002300079</v>
+      <c r="F19" t="str">
+        <v>1002300014</v>
       </c>
       <c r="G19" t="str">
         <v>JDB</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="str">
         <v>14065</v>
       </c>
       <c r="I19" t="str">
@@ -1282,42 +1282,42 @@
       <c r="K19" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="str">
         <v>18</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
+      <c r="M19" t="str">
+        <v>0</v>
+      </c>
+      <c r="N19" t="str">
+        <v>0</v>
+      </c>
+      <c r="O19" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
+      <c r="A20" t="str">
         <v>14053</v>
       </c>
       <c r="B20" t="str">
         <v>浪花2</v>
       </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
+      <c r="C20" t="str">
+        <v>3</v>
+      </c>
+      <c r="D20" t="str">
         <v>9</v>
       </c>
       <c r="E20" t="str">
         <v>JDB</v>
       </c>
-      <c r="F20">
-        <v>1002300079</v>
+      <c r="F20" t="str">
+        <v>1002300094</v>
       </c>
       <c r="G20" t="str">
         <v>JDB</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="str">
         <v>14053</v>
       </c>
       <c r="I20" t="str">
@@ -1329,42 +1329,42 @@
       <c r="K20" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="str">
         <v>19</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
+      <c r="M20" t="str">
+        <v>0</v>
+      </c>
+      <c r="N20" t="str">
+        <v>0</v>
+      </c>
+      <c r="O20" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
+      <c r="A21" t="str">
         <v>8047</v>
       </c>
       <c r="B21" t="str">
         <v>變臉2</v>
       </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
+      <c r="C21" t="str">
+        <v>3</v>
+      </c>
+      <c r="D21" t="str">
         <v>9</v>
       </c>
       <c r="E21" t="str">
         <v>JDB</v>
       </c>
-      <c r="F21">
-        <v>1002300079</v>
+      <c r="F21" t="str">
+        <v>1002300003</v>
       </c>
       <c r="G21" t="str">
         <v>JDB</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="str">
         <v>8047</v>
       </c>
       <c r="I21" t="str">
@@ -1376,42 +1376,42 @@
       <c r="K21" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L21">
+      <c r="L21" t="str">
         <v>20</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
+      <c r="M21" t="str">
+        <v>0</v>
+      </c>
+      <c r="N21" t="str">
+        <v>0</v>
+      </c>
+      <c r="O21" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="22">
-      <c r="A22">
+      <c r="A22" t="str">
         <v>14010</v>
       </c>
       <c r="B22" t="str">
         <v>飛龍在天</v>
       </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
+      <c r="C22" t="str">
+        <v>3</v>
+      </c>
+      <c r="D22" t="str">
         <v>9</v>
       </c>
       <c r="E22" t="str">
         <v>JDB</v>
       </c>
-      <c r="F22">
-        <v>1002300079</v>
+      <c r="F22" t="str">
+        <v>1002300006</v>
       </c>
       <c r="G22" t="str">
         <v>JDB</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="str">
         <v>14010</v>
       </c>
       <c r="I22" t="str">
@@ -1423,42 +1423,42 @@
       <c r="K22" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L22">
+      <c r="L22" t="str">
         <v>21</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
+      <c r="M22" t="str">
+        <v>0</v>
+      </c>
+      <c r="N22" t="str">
+        <v>0</v>
+      </c>
+      <c r="O22" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="23">
-      <c r="A23">
+      <c r="A23" t="str">
         <v>14084</v>
       </c>
       <c r="B23" t="str">
         <v>天降財神</v>
       </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
+      <c r="C23" t="str">
+        <v>3</v>
+      </c>
+      <c r="D23" t="str">
         <v>9</v>
       </c>
       <c r="E23" t="str">
         <v>JDB</v>
       </c>
-      <c r="F23">
-        <v>1002300079</v>
+      <c r="F23" t="str">
+        <v>1002300065</v>
       </c>
       <c r="G23" t="str">
         <v>JDB</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="str">
         <v>14084</v>
       </c>
       <c r="I23" t="str">
@@ -1470,42 +1470,42 @@
       <c r="K23" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L23">
+      <c r="L23" t="str">
         <v>22</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
+      <c r="M23" t="str">
+        <v>0</v>
+      </c>
+      <c r="N23" t="str">
+        <v>0</v>
+      </c>
+      <c r="O23" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="24">
-      <c r="A24">
+      <c r="A24" t="str">
         <v>14033</v>
       </c>
       <c r="B24" t="str">
         <v>飛鳥派對</v>
       </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
+      <c r="C24" t="str">
+        <v>3</v>
+      </c>
+      <c r="D24" t="str">
         <v>9</v>
       </c>
       <c r="E24" t="str">
         <v>JDB</v>
       </c>
-      <c r="F24">
-        <v>1002300079</v>
+      <c r="F24" t="str">
+        <v>1002300119</v>
       </c>
       <c r="G24" t="str">
         <v>JDB</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="str">
         <v>14033</v>
       </c>
       <c r="I24" t="str">
@@ -1517,42 +1517,42 @@
       <c r="K24" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L24">
+      <c r="L24" t="str">
         <v>23</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
+      <c r="M24" t="str">
+        <v>0</v>
+      </c>
+      <c r="N24" t="str">
+        <v>0</v>
+      </c>
+      <c r="O24" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="25">
-      <c r="A25">
+      <c r="A25" t="str">
         <v>14079</v>
       </c>
       <c r="B25" t="str">
         <v>富豪哥2</v>
       </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
+      <c r="C25" t="str">
+        <v>3</v>
+      </c>
+      <c r="D25" t="str">
         <v>9</v>
       </c>
       <c r="E25" t="str">
         <v>JDB</v>
       </c>
-      <c r="F25">
-        <v>1002300079</v>
+      <c r="F25" t="str">
+        <v>1002300104</v>
       </c>
       <c r="G25" t="str">
         <v>JDB</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="str">
         <v>14079</v>
       </c>
       <c r="I25" t="str">
@@ -1564,42 +1564,42 @@
       <c r="K25" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L25">
+      <c r="L25" t="str">
         <v>24</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
+      <c r="M25" t="str">
+        <v>0</v>
+      </c>
+      <c r="N25" t="str">
+        <v>0</v>
+      </c>
+      <c r="O25" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="26">
-      <c r="A26">
+      <c r="A26" t="str">
         <v>14086</v>
       </c>
       <c r="B26" t="str">
         <v>芝麻開門 Mega</v>
       </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
+      <c r="C26" t="str">
+        <v>3</v>
+      </c>
+      <c r="D26" t="str">
         <v>9</v>
       </c>
       <c r="E26" t="str">
         <v>JDB</v>
       </c>
-      <c r="F26">
-        <v>1002300079</v>
+      <c r="F26" t="str">
+        <v>1002300032</v>
       </c>
       <c r="G26" t="str">
         <v>JDB</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="str">
         <v>14086</v>
       </c>
       <c r="I26" t="str">
@@ -1611,42 +1611,42 @@
       <c r="K26" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L26">
+      <c r="L26" t="str">
         <v>25</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
+      <c r="M26" t="str">
+        <v>0</v>
+      </c>
+      <c r="N26" t="str">
+        <v>0</v>
+      </c>
+      <c r="O26" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="27">
-      <c r="A27">
+      <c r="A27" t="str">
         <v>14077</v>
       </c>
       <c r="B27" t="str">
         <v>王牌</v>
       </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
+      <c r="C27" t="str">
+        <v>3</v>
+      </c>
+      <c r="D27" t="str">
         <v>9</v>
       </c>
       <c r="E27" t="str">
         <v>JDB</v>
       </c>
-      <c r="F27">
-        <v>1002300079</v>
+      <c r="F27" t="str">
+        <v>1002300045</v>
       </c>
       <c r="G27" t="str">
         <v>JDB</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="str">
         <v>14077</v>
       </c>
       <c r="I27" t="str">
@@ -1658,42 +1658,42 @@
       <c r="K27" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L27">
+      <c r="L27" t="str">
         <v>26</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
+      <c r="M27" t="str">
+        <v>0</v>
+      </c>
+      <c r="N27" t="str">
+        <v>0</v>
+      </c>
+      <c r="O27" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="28">
-      <c r="A28">
+      <c r="A28" t="str">
         <v>8050</v>
       </c>
       <c r="B28" t="str">
         <v>馬上有錢</v>
       </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28">
+      <c r="C28" t="str">
+        <v>3</v>
+      </c>
+      <c r="D28" t="str">
         <v>9</v>
       </c>
       <c r="E28" t="str">
         <v>JDB</v>
       </c>
-      <c r="F28">
-        <v>1002300079</v>
+      <c r="F28" t="str">
+        <v>1002300077</v>
       </c>
       <c r="G28" t="str">
         <v>JDB</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="str">
         <v>8050</v>
       </c>
       <c r="I28" t="str">
@@ -1705,42 +1705,42 @@
       <c r="K28" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L28">
+      <c r="L28" t="str">
         <v>27</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
+      <c r="M28" t="str">
+        <v>0</v>
+      </c>
+      <c r="N28" t="str">
+        <v>0</v>
+      </c>
+      <c r="O28" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="29">
-      <c r="A29">
+      <c r="A29" t="str">
         <v>14016</v>
       </c>
       <c r="B29" t="str">
         <v>王牌特工</v>
       </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
+      <c r="C29" t="str">
+        <v>3</v>
+      </c>
+      <c r="D29" t="str">
         <v>9</v>
       </c>
       <c r="E29" t="str">
         <v>JDB</v>
       </c>
-      <c r="F29">
-        <v>1002300079</v>
+      <c r="F29" t="str">
+        <v>1002300063</v>
       </c>
       <c r="G29" t="str">
         <v>JDB</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="str">
         <v>14016</v>
       </c>
       <c r="I29" t="str">
@@ -1752,42 +1752,42 @@
       <c r="K29" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L29">
+      <c r="L29" t="str">
         <v>28</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
+      <c r="M29" t="str">
+        <v>0</v>
+      </c>
+      <c r="N29" t="str">
+        <v>0</v>
+      </c>
+      <c r="O29" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="30">
-      <c r="A30">
+      <c r="A30" t="str">
         <v>8015</v>
       </c>
       <c r="B30" t="str">
         <v>月光秘寶</v>
       </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
+      <c r="C30" t="str">
+        <v>3</v>
+      </c>
+      <c r="D30" t="str">
         <v>9</v>
       </c>
       <c r="E30" t="str">
         <v>JDB</v>
       </c>
-      <c r="F30">
-        <v>1002300079</v>
+      <c r="F30" t="str">
+        <v>1002300077</v>
       </c>
       <c r="G30" t="str">
         <v>JDB</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="str">
         <v>8015</v>
       </c>
       <c r="I30" t="str">
@@ -1799,42 +1799,42 @@
       <c r="K30" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L30">
+      <c r="L30" t="str">
         <v>29</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
+      <c r="M30" t="str">
+        <v>0</v>
+      </c>
+      <c r="N30" t="str">
+        <v>0</v>
+      </c>
+      <c r="O30" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="31">
-      <c r="A31">
+      <c r="A31" t="str">
         <v>8051</v>
       </c>
       <c r="B31" t="str">
         <v>喜洋羊</v>
       </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31">
+      <c r="C31" t="str">
+        <v>3</v>
+      </c>
+      <c r="D31" t="str">
         <v>9</v>
       </c>
       <c r="E31" t="str">
         <v>JDB</v>
       </c>
-      <c r="F31">
-        <v>1002300079</v>
+      <c r="F31" t="str">
+        <v>1002300077</v>
       </c>
       <c r="G31" t="str">
         <v>JDB</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="str">
         <v>8051</v>
       </c>
       <c r="I31" t="str">
@@ -1846,42 +1846,42 @@
       <c r="K31" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L31">
+      <c r="L31" t="str">
         <v>30</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
+      <c r="M31" t="str">
+        <v>0</v>
+      </c>
+      <c r="N31" t="str">
+        <v>0</v>
+      </c>
+      <c r="O31" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="32">
-      <c r="A32">
+      <c r="A32" t="str">
         <v>8012</v>
       </c>
       <c r="B32" t="str">
         <v>幸運熊貓</v>
       </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32">
+      <c r="C32" t="str">
+        <v>3</v>
+      </c>
+      <c r="D32" t="str">
         <v>9</v>
       </c>
       <c r="E32" t="str">
         <v>JDB</v>
       </c>
-      <c r="F32">
-        <v>1002300079</v>
+      <c r="F32" t="str">
+        <v>1002300077</v>
       </c>
       <c r="G32" t="str">
         <v>JDB</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="str">
         <v>8012</v>
       </c>
       <c r="I32" t="str">
@@ -1893,42 +1893,42 @@
       <c r="K32" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L32">
+      <c r="L32" t="str">
         <v>31</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
+      <c r="M32" t="str">
+        <v>0</v>
+      </c>
+      <c r="N32" t="str">
+        <v>0</v>
+      </c>
+      <c r="O32" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="33">
-      <c r="A33">
+      <c r="A33" t="str">
         <v>8009</v>
       </c>
       <c r="B33" t="str">
         <v>拳王</v>
       </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="D33">
+      <c r="C33" t="str">
+        <v>3</v>
+      </c>
+      <c r="D33" t="str">
         <v>9</v>
       </c>
       <c r="E33" t="str">
         <v>JDB</v>
       </c>
-      <c r="F33">
-        <v>1002300079</v>
+      <c r="F33" t="str">
+        <v>1002300035</v>
       </c>
       <c r="G33" t="str">
         <v>JDB</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="str">
         <v>8009</v>
       </c>
       <c r="I33" t="str">
@@ -1940,42 +1940,42 @@
       <c r="K33" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L33">
+      <c r="L33" t="str">
         <v>32</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
+      <c r="M33" t="str">
+        <v>0</v>
+      </c>
+      <c r="N33" t="str">
+        <v>0</v>
+      </c>
+      <c r="O33" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="34">
-      <c r="A34">
+      <c r="A34" t="str">
         <v>14051</v>
       </c>
       <c r="B34" t="str">
         <v>鯉躍龍門</v>
       </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34">
+      <c r="C34" t="str">
+        <v>3</v>
+      </c>
+      <c r="D34" t="str">
         <v>9</v>
       </c>
       <c r="E34" t="str">
         <v>JDB</v>
       </c>
-      <c r="F34">
-        <v>1002300079</v>
+      <c r="F34" t="str">
+        <v>1002300050</v>
       </c>
       <c r="G34" t="str">
         <v>JDB</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="str">
         <v>14051</v>
       </c>
       <c r="I34" t="str">
@@ -1987,42 +1987,42 @@
       <c r="K34" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L34">
+      <c r="L34" t="str">
         <v>33</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
+      <c r="M34" t="str">
+        <v>0</v>
+      </c>
+      <c r="N34" t="str">
+        <v>0</v>
+      </c>
+      <c r="O34" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="35">
-      <c r="A35">
+      <c r="A35" t="str">
         <v>15003</v>
       </c>
       <c r="B35" t="str">
         <v>骰寶無雙</v>
       </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35">
+      <c r="C35" t="str">
+        <v>3</v>
+      </c>
+      <c r="D35" t="str">
         <v>9</v>
       </c>
       <c r="E35" t="str">
         <v>JDB</v>
       </c>
-      <c r="F35">
-        <v>1002300079</v>
+      <c r="F35" t="str">
+        <v>1002300009</v>
       </c>
       <c r="G35" t="str">
         <v>JDB</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="str">
         <v>15003</v>
       </c>
       <c r="I35" t="str">
@@ -2034,42 +2034,42 @@
       <c r="K35" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L35">
+      <c r="L35" t="str">
         <v>34</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
+      <c r="M35" t="str">
+        <v>0</v>
+      </c>
+      <c r="N35" t="str">
+        <v>0</v>
+      </c>
+      <c r="O35" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="36">
-      <c r="A36">
+      <c r="A36" t="str">
         <v>14075</v>
       </c>
       <c r="B36" t="str">
         <v>幸運招財貓</v>
       </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36">
+      <c r="C36" t="str">
+        <v>3</v>
+      </c>
+      <c r="D36" t="str">
         <v>9</v>
       </c>
       <c r="E36" t="str">
         <v>JDB</v>
       </c>
-      <c r="F36">
-        <v>1002300079</v>
+      <c r="F36" t="str">
+        <v>1002300036</v>
       </c>
       <c r="G36" t="str">
         <v>JDB</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="str">
         <v>14075</v>
       </c>
       <c r="I36" t="str">
@@ -2081,42 +2081,42 @@
       <c r="K36" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L36">
+      <c r="L36" t="str">
         <v>35</v>
       </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
+      <c r="M36" t="str">
+        <v>0</v>
+      </c>
+      <c r="N36" t="str">
+        <v>0</v>
+      </c>
+      <c r="O36" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="37">
-      <c r="A37">
+      <c r="A37" t="str">
         <v>14080</v>
       </c>
       <c r="B37" t="str">
         <v>元素連結火</v>
       </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37">
+      <c r="C37" t="str">
+        <v>3</v>
+      </c>
+      <c r="D37" t="str">
         <v>9</v>
       </c>
       <c r="E37" t="str">
         <v>JDB</v>
       </c>
-      <c r="F37">
-        <v>1002300079</v>
+      <c r="F37" t="str">
+        <v>1002300093</v>
       </c>
       <c r="G37" t="str">
         <v>JDB</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="str">
         <v>14080</v>
       </c>
       <c r="I37" t="str">
@@ -2128,42 +2128,42 @@
       <c r="K37" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L37">
+      <c r="L37" t="str">
         <v>36</v>
       </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
+      <c r="M37" t="str">
+        <v>0</v>
+      </c>
+      <c r="N37" t="str">
+        <v>0</v>
+      </c>
+      <c r="O37" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="38">
-      <c r="A38">
+      <c r="A38" t="str">
         <v>8017</v>
       </c>
       <c r="B38" t="str">
         <v>過新年</v>
       </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38">
+      <c r="C38" t="str">
+        <v>3</v>
+      </c>
+      <c r="D38" t="str">
         <v>9</v>
       </c>
       <c r="E38" t="str">
         <v>JDB</v>
       </c>
-      <c r="F38">
-        <v>1002300079</v>
+      <c r="F38" t="str">
+        <v>1002300091</v>
       </c>
       <c r="G38" t="str">
         <v>JDB</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="str">
         <v>8017</v>
       </c>
       <c r="I38" t="str">
@@ -2175,42 +2175,42 @@
       <c r="K38" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L38">
+      <c r="L38" t="str">
         <v>37</v>
       </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
+      <c r="M38" t="str">
+        <v>0</v>
+      </c>
+      <c r="N38" t="str">
+        <v>0</v>
+      </c>
+      <c r="O38" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="39">
-      <c r="A39">
+      <c r="A39" t="str">
         <v>8049</v>
       </c>
       <c r="B39" t="str">
         <v>唐伯虎點秋香2</v>
       </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39">
+      <c r="C39" t="str">
+        <v>3</v>
+      </c>
+      <c r="D39" t="str">
         <v>9</v>
       </c>
       <c r="E39" t="str">
         <v>JDB</v>
       </c>
-      <c r="F39">
-        <v>1002300079</v>
+      <c r="F39" t="str">
+        <v>1002300102</v>
       </c>
       <c r="G39" t="str">
         <v>JDB</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="str">
         <v>8049</v>
       </c>
       <c r="I39" t="str">
@@ -2222,42 +2222,42 @@
       <c r="K39" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L39">
+      <c r="L39" t="str">
         <v>38</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
+      <c r="M39" t="str">
+        <v>0</v>
+      </c>
+      <c r="N39" t="str">
+        <v>0</v>
+      </c>
+      <c r="O39" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="40">
-      <c r="A40">
+      <c r="A40" t="str">
         <v>8001</v>
       </c>
       <c r="B40" t="str">
         <v>幸運龍</v>
       </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40">
+      <c r="C40" t="str">
+        <v>3</v>
+      </c>
+      <c r="D40" t="str">
         <v>9</v>
       </c>
       <c r="E40" t="str">
         <v>JDB</v>
       </c>
-      <c r="F40">
-        <v>1002300079</v>
+      <c r="F40" t="str">
+        <v>1002300090</v>
       </c>
       <c r="G40" t="str">
         <v>JDB</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="str">
         <v>8001</v>
       </c>
       <c r="I40" t="str">
@@ -2269,42 +2269,42 @@
       <c r="K40" t="str">
         <v>1, 2</v>
       </c>
-      <c r="L40">
+      <c r="L40" t="str">
         <v>39</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
+      <c r="M40" t="str">
+        <v>0</v>
+      </c>
+      <c r="N40" t="str">
+        <v>0</v>
+      </c>
+      <c r="O40" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="41">
-      <c r="A41">
+      <c r="A41" t="str">
         <v>8033</v>
       </c>
       <c r="B41" t="str">
         <v>金錢豹</v>
       </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41">
+      <c r="C41" t="str">
+        <v>3</v>
+      </c>
+      <c r="D41" t="str">
         <v>9</v>
       </c>
       <c r="E41" t="str">
         <v>JDB</v>
       </c>
-      <c r="F41">
-        <v>1002300079</v>
+      <c r="F41" t="str">
+        <v>1002300077</v>
       </c>
       <c r="G41" t="str">
         <v>JDB</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="str">
         <v>8033</v>
       </c>
       <c r="I41" t="str">
@@ -2316,42 +2316,42 @@
       <c r="K41" t="str">
         <v>1, 6</v>
       </c>
-      <c r="L41">
+      <c r="L41" t="str">
         <v>40</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
+      <c r="M41" t="str">
+        <v>0</v>
+      </c>
+      <c r="N41" t="str">
+        <v>0</v>
+      </c>
+      <c r="O41" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="42">
-      <c r="A42">
+      <c r="A42" t="str">
         <v>8032</v>
       </c>
       <c r="B42" t="str">
         <v>暴發虎</v>
       </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
-      <c r="D42">
+      <c r="C42" t="str">
+        <v>3</v>
+      </c>
+      <c r="D42" t="str">
         <v>9</v>
       </c>
       <c r="E42" t="str">
         <v>JDB</v>
       </c>
-      <c r="F42">
-        <v>1002300079</v>
+      <c r="F42" t="str">
+        <v>1002300077</v>
       </c>
       <c r="G42" t="str">
         <v>JDB</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="str">
         <v>8032</v>
       </c>
       <c r="I42" t="str">
@@ -2363,42 +2363,42 @@
       <c r="K42" t="str">
         <v>1, 6</v>
       </c>
-      <c r="L42">
+      <c r="L42" t="str">
         <v>41</v>
       </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
+      <c r="M42" t="str">
+        <v>0</v>
+      </c>
+      <c r="N42" t="str">
+        <v>0</v>
+      </c>
+      <c r="O42" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="43">
-      <c r="A43">
+      <c r="A43" t="str">
         <v>9001</v>
       </c>
       <c r="B43" t="str">
         <v>小瑪莉</v>
       </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-      <c r="D43">
+      <c r="C43" t="str">
+        <v>3</v>
+      </c>
+      <c r="D43" t="str">
         <v>9</v>
       </c>
       <c r="E43" t="str">
         <v>JDB</v>
       </c>
-      <c r="F43">
-        <v>1002300079</v>
+      <c r="F43" t="str">
+        <v>1002300011</v>
       </c>
       <c r="G43" t="str">
         <v>JDB</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="str">
         <v>9001</v>
       </c>
       <c r="I43" t="str">
@@ -2410,42 +2410,42 @@
       <c r="K43" t="str">
         <v>1, 6</v>
       </c>
-      <c r="L43">
+      <c r="L43" t="str">
         <v>42</v>
       </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
+      <c r="M43" t="str">
+        <v>0</v>
+      </c>
+      <c r="N43" t="str">
+        <v>9</v>
+      </c>
+      <c r="O43" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="44">
-      <c r="A44">
+      <c r="A44" t="str">
         <v>9002</v>
       </c>
       <c r="B44" t="str">
         <v>新年快樂</v>
       </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44">
+      <c r="C44" t="str">
+        <v>3</v>
+      </c>
+      <c r="D44" t="str">
         <v>9</v>
       </c>
       <c r="E44" t="str">
         <v>JDB</v>
       </c>
-      <c r="F44">
-        <v>1002300079</v>
+      <c r="F44" t="str">
+        <v>1002300034</v>
       </c>
       <c r="G44" t="str">
         <v>JDB</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="str">
         <v>9002</v>
       </c>
       <c r="I44" t="str">
@@ -2457,42 +2457,42 @@
       <c r="K44" t="str">
         <v>1, 6</v>
       </c>
-      <c r="L44">
+      <c r="L44" t="str">
         <v>43</v>
       </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
+      <c r="M44" t="str">
+        <v>0</v>
+      </c>
+      <c r="N44" t="str">
+        <v>9</v>
+      </c>
+      <c r="O44" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="45">
-      <c r="A45">
+      <c r="A45" t="str">
         <v>9003</v>
       </c>
       <c r="B45" t="str">
         <v>飛禽走獸</v>
       </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-      <c r="D45">
+      <c r="C45" t="str">
+        <v>3</v>
+      </c>
+      <c r="D45" t="str">
         <v>9</v>
       </c>
       <c r="E45" t="str">
         <v>JDB</v>
       </c>
-      <c r="F45">
-        <v>1002300079</v>
+      <c r="F45" t="str">
+        <v>1002300001</v>
       </c>
       <c r="G45" t="str">
         <v>JDB</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="str">
         <v>9003</v>
       </c>
       <c r="I45" t="str">
@@ -2504,42 +2504,42 @@
       <c r="K45" t="str">
         <v>1, 6</v>
       </c>
-      <c r="L45">
+      <c r="L45" t="str">
         <v>44</v>
       </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
+      <c r="M45" t="str">
+        <v>0</v>
+      </c>
+      <c r="N45" t="str">
+        <v>9</v>
+      </c>
+      <c r="O45" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="46">
-      <c r="A46">
+      <c r="A46" t="str">
         <v>9004</v>
       </c>
       <c r="B46" t="str">
         <v>啤酒大亨</v>
       </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-      <c r="D46">
+      <c r="C46" t="str">
+        <v>3</v>
+      </c>
+      <c r="D46" t="str">
         <v>9</v>
       </c>
       <c r="E46" t="str">
         <v>JDB</v>
       </c>
-      <c r="F46">
-        <v>1002300079</v>
+      <c r="F46" t="str">
+        <v>1002300096</v>
       </c>
       <c r="G46" t="str">
         <v>JDB</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="str">
         <v>9004</v>
       </c>
       <c r="I46" t="str">
@@ -2551,42 +2551,42 @@
       <c r="K46" t="str">
         <v>1, 6</v>
       </c>
-      <c r="L46">
+      <c r="L46" t="str">
         <v>45</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
+      <c r="M46" t="str">
+        <v>0</v>
+      </c>
+      <c r="N46" t="str">
+        <v>9</v>
+      </c>
+      <c r="O46" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="47">
-      <c r="A47">
+      <c r="A47" t="str">
         <v>9006</v>
       </c>
       <c r="B47" t="str">
         <v>花果山傳奇</v>
       </c>
-      <c r="C47">
-        <v>3</v>
-      </c>
-      <c r="D47">
+      <c r="C47" t="str">
+        <v>3</v>
+      </c>
+      <c r="D47" t="str">
         <v>9</v>
       </c>
       <c r="E47" t="str">
         <v>JDB</v>
       </c>
-      <c r="F47">
-        <v>1002300079</v>
+      <c r="F47" t="str">
+        <v>1002300095</v>
       </c>
       <c r="G47" t="str">
         <v>JDB</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="str">
         <v>9006</v>
       </c>
       <c r="I47" t="str">
@@ -2598,42 +2598,42 @@
       <c r="K47" t="str">
         <v>1, 6</v>
       </c>
-      <c r="L47">
+      <c r="L47" t="str">
         <v>46</v>
       </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
+      <c r="M47" t="str">
+        <v>0</v>
+      </c>
+      <c r="N47" t="str">
+        <v>9</v>
+      </c>
+      <c r="O47" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="48">
-      <c r="A48">
+      <c r="A48" t="str">
         <v>9007</v>
       </c>
       <c r="B48" t="str">
         <v>超激發水果盤</v>
       </c>
-      <c r="C48">
-        <v>3</v>
-      </c>
-      <c r="D48">
+      <c r="C48" t="str">
+        <v>3</v>
+      </c>
+      <c r="D48" t="str">
         <v>9</v>
       </c>
       <c r="E48" t="str">
         <v>JDB</v>
       </c>
-      <c r="F48">
-        <v>1002300079</v>
+      <c r="F48" t="str">
+        <v>1002300081</v>
       </c>
       <c r="G48" t="str">
         <v>JDB</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="str">
         <v>9007</v>
       </c>
       <c r="I48" t="str">
@@ -2645,42 +2645,42 @@
       <c r="K48" t="str">
         <v>1, 6</v>
       </c>
-      <c r="L48">
+      <c r="L48" t="str">
         <v>47</v>
       </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
+      <c r="M48" t="str">
+        <v>0</v>
+      </c>
+      <c r="N48" t="str">
+        <v>9</v>
+      </c>
+      <c r="O48" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="49">
-      <c r="A49">
+      <c r="A49" t="str">
         <v>9008</v>
       </c>
       <c r="B49" t="str">
         <v>瘋狂金剛</v>
       </c>
-      <c r="C49">
-        <v>3</v>
-      </c>
-      <c r="D49">
+      <c r="C49" t="str">
+        <v>3</v>
+      </c>
+      <c r="D49" t="str">
         <v>9</v>
       </c>
       <c r="E49" t="str">
         <v>JDB</v>
       </c>
-      <c r="F49">
-        <v>1002300079</v>
+      <c r="F49" t="str">
+        <v>1002300082</v>
       </c>
       <c r="G49" t="str">
         <v>JDB</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="str">
         <v>9008</v>
       </c>
       <c r="I49" t="str">
@@ -2692,42 +2692,42 @@
       <c r="K49" t="str">
         <v>1, 6</v>
       </c>
-      <c r="L49">
+      <c r="L49" t="str">
         <v>48</v>
       </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
+      <c r="M49" t="str">
+        <v>0</v>
+      </c>
+      <c r="N49" t="str">
+        <v>9</v>
+      </c>
+      <c r="O49" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="50">
-      <c r="A50">
+      <c r="A50" t="str">
         <v>9009</v>
       </c>
       <c r="B50" t="str">
         <v>發財足球王</v>
       </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
-      <c r="D50">
+      <c r="C50" t="str">
+        <v>3</v>
+      </c>
+      <c r="D50" t="str">
         <v>9</v>
       </c>
       <c r="E50" t="str">
         <v>JDB</v>
       </c>
-      <c r="F50">
-        <v>1002300079</v>
+      <c r="F50" t="str">
+        <v>1002300083</v>
       </c>
       <c r="G50" t="str">
         <v>JDB</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="str">
         <v>9009</v>
       </c>
       <c r="I50" t="str">
@@ -2739,42 +2739,42 @@
       <c r="K50" t="str">
         <v>1, 6</v>
       </c>
-      <c r="L50">
+      <c r="L50" t="str">
         <v>49</v>
       </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
+      <c r="M50" t="str">
+        <v>0</v>
+      </c>
+      <c r="N50" t="str">
+        <v>9</v>
+      </c>
+      <c r="O50" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="51">
-      <c r="A51">
+      <c r="A51" t="str">
         <v>12001</v>
       </c>
       <c r="B51" t="str">
         <v>財神賓果彩</v>
       </c>
-      <c r="C51">
-        <v>3</v>
-      </c>
-      <c r="D51">
+      <c r="C51" t="str">
+        <v>3</v>
+      </c>
+      <c r="D51" t="str">
         <v>9</v>
       </c>
       <c r="E51" t="str">
         <v>JDB</v>
       </c>
-      <c r="F51">
-        <v>1002300079</v>
+      <c r="F51" t="str">
+        <v>1002300084</v>
       </c>
       <c r="G51" t="str">
         <v>JDB</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="str">
         <v>12001</v>
       </c>
       <c r="I51" t="str">
@@ -2786,42 +2786,42 @@
       <c r="K51" t="str">
         <v>1, 6</v>
       </c>
-      <c r="L51">
+      <c r="L51" t="str">
         <v>50</v>
       </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
+      <c r="M51" t="str">
+        <v>0</v>
+      </c>
+      <c r="N51" t="str">
+        <v>12</v>
+      </c>
+      <c r="O51" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="52">
-      <c r="A52">
+      <c r="A52" t="str">
         <v>12002</v>
       </c>
       <c r="B52" t="str">
         <v>金雞福彩</v>
       </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-      <c r="D52">
+      <c r="C52" t="str">
+        <v>3</v>
+      </c>
+      <c r="D52" t="str">
         <v>9</v>
       </c>
       <c r="E52" t="str">
         <v>JDB</v>
       </c>
-      <c r="F52">
-        <v>1002300079</v>
+      <c r="F52" t="str">
+        <v>1002300085</v>
       </c>
       <c r="G52" t="str">
         <v>JDB</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="str">
         <v>12002</v>
       </c>
       <c r="I52" t="str">
@@ -2833,42 +2833,42 @@
       <c r="K52" t="str">
         <v>1, 6</v>
       </c>
-      <c r="L52">
+      <c r="L52" t="str">
         <v>51</v>
       </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
+      <c r="M52" t="str">
+        <v>0</v>
+      </c>
+      <c r="N52" t="str">
+        <v>12</v>
+      </c>
+      <c r="O52" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="53">
-      <c r="A53">
+      <c r="A53" t="str">
         <v>12003</v>
       </c>
       <c r="B53" t="str">
         <v>快樂六星彩</v>
       </c>
-      <c r="C53">
-        <v>3</v>
-      </c>
-      <c r="D53">
+      <c r="C53" t="str">
+        <v>3</v>
+      </c>
+      <c r="D53" t="str">
         <v>9</v>
       </c>
       <c r="E53" t="str">
         <v>JDB</v>
       </c>
-      <c r="F53">
-        <v>1002300079</v>
+      <c r="F53" t="str">
+        <v>1002300086</v>
       </c>
       <c r="G53" t="str">
         <v>JDB</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="str">
         <v>12003</v>
       </c>
       <c r="I53" t="str">
@@ -2880,42 +2880,42 @@
       <c r="K53" t="str">
         <v>1, 6</v>
       </c>
-      <c r="L53">
+      <c r="L53" t="str">
         <v>52</v>
       </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
+      <c r="M53" t="str">
+        <v>0</v>
+      </c>
+      <c r="N53" t="str">
+        <v>12</v>
+      </c>
+      <c r="O53" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="54">
-      <c r="A54">
+      <c r="A54" t="str">
         <v>7003</v>
       </c>
       <c r="B54" t="str">
         <v>財神捕魚</v>
       </c>
-      <c r="C54">
-        <v>3</v>
-      </c>
-      <c r="D54">
+      <c r="C54" t="str">
+        <v>3</v>
+      </c>
+      <c r="D54" t="str">
         <v>9</v>
       </c>
       <c r="E54" t="str">
         <v>JDB</v>
       </c>
-      <c r="F54">
-        <v>1002300079</v>
+      <c r="F54" t="str">
+        <v>1002300110</v>
       </c>
       <c r="G54" t="str">
         <v>JDB</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="str">
         <v>7003</v>
       </c>
       <c r="I54" t="str">
@@ -2924,45 +2924,45 @@
       <c r="J54" t="str">
         <v>Game_JDB_7003</v>
       </c>
-      <c r="K54">
-        <v>37989</v>
-      </c>
-      <c r="L54">
+      <c r="K54" t="str">
+        <v>1, 3, 4</v>
+      </c>
+      <c r="L54" t="str">
         <v>53</v>
       </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
+      <c r="M54" t="str">
+        <v>0</v>
+      </c>
+      <c r="N54" t="str">
+        <v>7</v>
+      </c>
+      <c r="O54" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="55">
-      <c r="A55">
+      <c r="A55" t="str">
         <v>7004</v>
       </c>
       <c r="B55" t="str">
         <v>五龍捕魚</v>
       </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-      <c r="D55">
+      <c r="C55" t="str">
+        <v>3</v>
+      </c>
+      <c r="D55" t="str">
         <v>9</v>
       </c>
       <c r="E55" t="str">
         <v>JDB</v>
       </c>
-      <c r="F55">
-        <v>1002300079</v>
+      <c r="F55" t="str">
+        <v>1002300122</v>
       </c>
       <c r="G55" t="str">
         <v>JDB</v>
       </c>
-      <c r="H55">
+      <c r="H55" t="str">
         <v>7004</v>
       </c>
       <c r="I55" t="str">
@@ -2971,45 +2971,45 @@
       <c r="J55" t="str">
         <v>Game_JDB_7004</v>
       </c>
-      <c r="K55">
-        <v>37989</v>
-      </c>
-      <c r="L55">
+      <c r="K55" t="str">
+        <v>1, 3, 4</v>
+      </c>
+      <c r="L55" t="str">
         <v>54</v>
       </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
+      <c r="M55" t="str">
+        <v>0</v>
+      </c>
+      <c r="N55" t="str">
+        <v>7</v>
+      </c>
+      <c r="O55" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="56">
-      <c r="A56">
+      <c r="A56" t="str">
         <v>7005</v>
       </c>
       <c r="B56" t="str">
         <v>捕魚一路發</v>
       </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-      <c r="D56">
+      <c r="C56" t="str">
+        <v>3</v>
+      </c>
+      <c r="D56" t="str">
         <v>9</v>
       </c>
       <c r="E56" t="str">
         <v>JDB</v>
       </c>
-      <c r="F56">
-        <v>1002300079</v>
+      <c r="F56" t="str">
+        <v>1002300087</v>
       </c>
       <c r="G56" t="str">
         <v>JDB</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="str">
         <v>7005</v>
       </c>
       <c r="I56" t="str">
@@ -3018,45 +3018,45 @@
       <c r="J56" t="str">
         <v>Game_JDB_7005</v>
       </c>
-      <c r="K56">
-        <v>37989</v>
-      </c>
-      <c r="L56">
+      <c r="K56" t="str">
+        <v>1, 3, 4</v>
+      </c>
+      <c r="L56" t="str">
         <v>55</v>
       </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
+      <c r="M56" t="str">
+        <v>0</v>
+      </c>
+      <c r="N56" t="str">
+        <v>7</v>
+      </c>
+      <c r="O56" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="57">
-      <c r="A57">
+      <c r="A57" t="str">
         <v>7001</v>
       </c>
       <c r="B57" t="str">
         <v>龍王捕魚</v>
       </c>
-      <c r="C57">
-        <v>3</v>
-      </c>
-      <c r="D57">
+      <c r="C57" t="str">
+        <v>3</v>
+      </c>
+      <c r="D57" t="str">
         <v>9</v>
       </c>
       <c r="E57" t="str">
         <v>JDB</v>
       </c>
-      <c r="F57">
-        <v>1002300079</v>
+      <c r="F57" t="str">
+        <v>1002300088</v>
       </c>
       <c r="G57" t="str">
         <v>JDB</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="str">
         <v>7001</v>
       </c>
       <c r="I57" t="str">
@@ -3065,45 +3065,45 @@
       <c r="J57" t="str">
         <v>Game_JDB_7001</v>
       </c>
-      <c r="K57">
-        <v>37989</v>
-      </c>
-      <c r="L57">
+      <c r="K57" t="str">
+        <v>1, 3, 4</v>
+      </c>
+      <c r="L57" t="str">
         <v>56</v>
       </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
+      <c r="M57" t="str">
+        <v>0</v>
+      </c>
+      <c r="N57" t="str">
+        <v>7</v>
+      </c>
+      <c r="O57" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="58">
-      <c r="A58">
+      <c r="A58" t="str">
         <v>7006</v>
       </c>
       <c r="B58" t="str">
         <v>獵龍高手</v>
       </c>
-      <c r="C58">
-        <v>3</v>
-      </c>
-      <c r="D58">
+      <c r="C58" t="str">
+        <v>3</v>
+      </c>
+      <c r="D58" t="str">
         <v>9</v>
       </c>
       <c r="E58" t="str">
         <v>JDB</v>
       </c>
-      <c r="F58">
-        <v>1002300079</v>
+      <c r="F58" t="str">
+        <v>1002300069</v>
       </c>
       <c r="G58" t="str">
         <v>JDB</v>
       </c>
-      <c r="H58">
+      <c r="H58" t="str">
         <v>7006</v>
       </c>
       <c r="I58" t="str">
@@ -3115,42 +3115,42 @@
       <c r="K58" t="str">
         <v>1, 3</v>
       </c>
-      <c r="L58">
+      <c r="L58" t="str">
         <v>57</v>
       </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
+      <c r="M58" t="str">
+        <v>0</v>
+      </c>
+      <c r="N58" t="str">
+        <v>7</v>
+      </c>
+      <c r="O58" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="59">
-      <c r="A59">
+      <c r="A59" t="str">
         <v>7002</v>
       </c>
       <c r="B59" t="str">
         <v>龍王捕魚2</v>
       </c>
-      <c r="C59">
-        <v>3</v>
-      </c>
-      <c r="D59">
+      <c r="C59" t="str">
+        <v>3</v>
+      </c>
+      <c r="D59" t="str">
         <v>9</v>
       </c>
       <c r="E59" t="str">
         <v>JDB</v>
       </c>
-      <c r="F59">
-        <v>1002300079</v>
+      <c r="F59" t="str">
+        <v>1002300069</v>
       </c>
       <c r="G59" t="str">
         <v>JDB</v>
       </c>
-      <c r="H59">
+      <c r="H59" t="str">
         <v>7002</v>
       </c>
       <c r="I59" t="str">
@@ -3162,42 +3162,42 @@
       <c r="K59" t="str">
         <v>1, 3</v>
       </c>
-      <c r="L59">
+      <c r="L59" t="str">
         <v>58</v>
       </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
+      <c r="M59" t="str">
+        <v>0</v>
+      </c>
+      <c r="N59" t="str">
+        <v>7</v>
+      </c>
+      <c r="O59" t="str">
+        <v/>
       </c>
     </row>
     <row r="60">
-      <c r="A60">
+      <c r="A60" t="str">
         <v>7007</v>
       </c>
       <c r="B60" t="str">
         <v>捕魚迪斯可</v>
       </c>
-      <c r="C60">
-        <v>3</v>
-      </c>
-      <c r="D60">
+      <c r="C60" t="str">
+        <v>3</v>
+      </c>
+      <c r="D60" t="str">
         <v>9</v>
       </c>
       <c r="E60" t="str">
         <v>JDB</v>
       </c>
-      <c r="F60">
-        <v>1002300079</v>
+      <c r="F60" t="str">
+        <v>1002300069</v>
       </c>
       <c r="G60" t="str">
         <v>JDB</v>
       </c>
-      <c r="H60">
+      <c r="H60" t="str">
         <v>7007</v>
       </c>
       <c r="I60" t="str">
@@ -3209,17 +3209,17 @@
       <c r="K60" t="str">
         <v>1, 3</v>
       </c>
-      <c r="L60">
+      <c r="L60" t="str">
         <v>59</v>
       </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
+      <c r="M60" t="str">
+        <v>0</v>
+      </c>
+      <c r="N60" t="str">
+        <v>7</v>
+      </c>
+      <c r="O60" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
